--- a/RadCor_Info.xlsx
+++ b/RadCor_Info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0575329-0E77-41A6-8A88-20D26F434F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645771F7-81B8-4B00-B19A-2C1C598A2C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>2.5988 revfunc</t>
   </si>
   <si>
-    <t>2.6358 revfunc</t>
-  </si>
-  <si>
     <t>2.65795 revfunc (2.65747 for +-0.4 range)</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>497.726 (497.725)</t>
+  </si>
+  <si>
+    <t>2.63507revfunc</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,13 +922,13 @@
         <v>505</v>
       </c>
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,13 +936,13 @@
         <v>508</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,10 +950,10 @@
         <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>497.66840000000002</v>
+        <v>497.63799999999998</v>
       </c>
       <c r="D18">
         <v>5.4999999999999997E-3</v>
@@ -964,13 +964,13 @@
         <v>510</v>
       </c>
       <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,19 +983,22 @@
       <c r="C20">
         <v>497.66840000000002</v>
       </c>
+      <c r="D20">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>514</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/RadCor_Info.xlsx
+++ b/RadCor_Info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645771F7-81B8-4B00-B19A-2C1C598A2C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504B26E-BEAC-44AF-A18A-20645493E5A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
